--- a/www.eia.gov/electricity/monthly/xls/table_5_02.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Table 5.2. Revenue from Sales of Electricity to Ultimate Customers:</t>
   </si>
   <si>
-    <t>Total by End-Use Sector, 2006 - October 2016 (Million Dollars)</t>
+    <t>Total by End-Use Sector, 2006 - November 2016 (Million Dollars)</t>
   </si>
   <si>
     <t>Period</t>
@@ -99,7 +99,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>See Technical notes for additional information on the Commercial, Industrial, and Transportation sectors. NA = Not available. See Glossary for definitions.
@@ -998,7 +998,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1973,140 +1973,160 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="7">
+        <v>11829</v>
+      </c>
+      <c r="C52" s="7">
+        <v>10707</v>
+      </c>
+      <c r="D52" s="7">
+        <v>4985</v>
+      </c>
+      <c r="E52" s="7">
+        <v>53</v>
+      </c>
+      <c r="F52" s="7">
+        <v>27574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B53" s="7">
-        <v>149054</v>
-      </c>
-      <c r="C53" s="7">
-        <v>123094</v>
-      </c>
-      <c r="D53" s="7">
-        <v>60013</v>
-      </c>
-      <c r="E53" s="7">
-        <v>680</v>
-      </c>
-      <c r="F53" s="7">
-        <v>332841</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B54" s="7">
-        <v>152089</v>
+        <v>161471</v>
       </c>
       <c r="C54" s="7">
-        <v>123234</v>
+        <v>134061</v>
       </c>
       <c r="D54" s="7">
-        <v>57939</v>
+        <v>65483</v>
       </c>
       <c r="E54" s="7">
-        <v>652</v>
+        <v>745</v>
       </c>
       <c r="F54" s="7">
-        <v>333913</v>
+        <v>361760</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B55" s="7">
+        <v>163864</v>
+      </c>
+      <c r="C55" s="7">
+        <v>133956</v>
+      </c>
+      <c r="D55" s="7">
+        <v>63123</v>
+      </c>
+      <c r="E55" s="7">
+        <v>710</v>
+      </c>
+      <c r="F55" s="7">
+        <v>361654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>2016</v>
       </c>
-      <c r="B55" s="7">
-        <v>150007</v>
-      </c>
-      <c r="C55" s="7">
-        <v>119196</v>
-      </c>
-      <c r="D55" s="7">
-        <v>53228</v>
-      </c>
-      <c r="E55" s="7">
-        <v>596</v>
-      </c>
-      <c r="F55" s="7">
-        <v>323026</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="7">
+        <v>161836</v>
+      </c>
+      <c r="C56" s="7">
+        <v>129903</v>
+      </c>
+      <c r="D56" s="7">
+        <v>58213</v>
+      </c>
+      <c r="E56" s="7">
+        <v>649</v>
+      </c>
+      <c r="F56" s="7">
+        <v>350601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B57" s="7">
-        <v>179213</v>
-      </c>
-      <c r="C57" s="7">
-        <v>145393</v>
-      </c>
-      <c r="D57" s="7">
-        <v>68781</v>
-      </c>
-      <c r="E57" s="7">
-        <v>782</v>
-      </c>
-      <c r="F57" s="7">
-        <v>394169</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B58" s="7">
+        <v>178571</v>
+      </c>
+      <c r="C58" s="7">
+        <v>145148</v>
+      </c>
+      <c r="D58" s="7">
+        <v>68496</v>
+      </c>
+      <c r="E58" s="7">
+        <v>775</v>
+      </c>
+      <c r="F58" s="7">
+        <v>392990</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>2016</v>
       </c>
-      <c r="B58" s="7">
-        <v>175541</v>
-      </c>
-      <c r="C58" s="7">
-        <v>140743</v>
-      </c>
-      <c r="D58" s="7">
-        <v>63455</v>
-      </c>
-      <c r="E58" s="7">
-        <v>715</v>
-      </c>
-      <c r="F58" s="7">
-        <v>380454</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="B59" s="7">
+        <v>175595</v>
+      </c>
+      <c r="C59" s="7">
+        <v>140728</v>
+      </c>
+      <c r="D59" s="7">
+        <v>63256</v>
+      </c>
+      <c r="E59" s="7">
+        <v>710</v>
+      </c>
+      <c r="F59" s="7">
+        <v>380288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
